--- a/data/故障样本.xlsx
+++ b/data/故障样本.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyixiang\Desktop\transformerFaultPrediction\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168954C3-9F3C-49C8-BFBF-BF7AB13296B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="23">
   <si>
     <t>采集日期</t>
   </si>
@@ -87,12 +93,6 @@
     <t>氢气和一氧化碳增加，烃类增加，可燃气体增加，油温升高</t>
   </si>
   <si>
-    <t>气体泄漏</t>
-  </si>
-  <si>
-    <t>各种气体减少</t>
-  </si>
-  <si>
     <t>冷却故障</t>
   </si>
   <si>
@@ -102,16 +102,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +124,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -138,151 +133,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,194 +158,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -636,280 +307,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -933,80 +362,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1264,24 +640,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="56.2166666666667" customWidth="1"/>
+    <col min="12" max="12" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,12 +692,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B2" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C2" s="4">
         <v>7.2</v>
@@ -1330,7 +706,7 @@
         <v>6.2</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1351,9 +727,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B3" s="6">
         <v>8.6</v>
@@ -1386,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -1409,7 +785,7 @@
         <v>3.6</v>
       </c>
       <c r="H4" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I4" s="6">
         <v>26</v>
@@ -1421,9 +797,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
@@ -1456,12 +832,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B6" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C6" s="6">
         <v>7.3</v>
@@ -1491,15 +867,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B7" s="6">
         <v>7.9</v>
       </c>
       <c r="C7" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D7" s="6">
         <v>5.6</v>
@@ -1514,7 +890,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I7" s="6">
         <v>26.3</v>
@@ -1526,9 +902,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B8" s="6">
         <v>7.8</v>
@@ -1546,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H8" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I8" s="6">
         <v>31.7</v>
@@ -1561,9 +937,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B9" s="6">
         <v>7.8</v>
@@ -1596,9 +972,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B10" s="6">
         <v>7.9</v>
@@ -1619,7 +995,7 @@
         <v>8.9</v>
       </c>
       <c r="H10" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I10" s="6">
         <v>32</v>
@@ -1631,9 +1007,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B11" s="6">
         <v>7.8</v>
@@ -1666,9 +1042,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B12" s="6">
         <v>7.7</v>
@@ -1689,7 +1065,7 @@
         <v>3.3</v>
       </c>
       <c r="H12" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I12" s="6">
         <v>25.1</v>
@@ -1701,9 +1077,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B13" s="6">
         <v>7.7</v>
@@ -1715,7 +1091,7 @@
         <v>5.4</v>
       </c>
       <c r="E13" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1736,9 +1112,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B14" s="6">
         <v>7.6</v>
@@ -1759,7 +1135,7 @@
         <v>3.4</v>
       </c>
       <c r="H14" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I14" s="6">
         <v>25.7</v>
@@ -1771,9 +1147,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B15" s="6">
         <v>7.6</v>
@@ -1806,9 +1182,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B16" s="6">
         <v>7.6</v>
@@ -1841,9 +1217,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B17" s="6">
         <v>7.7</v>
@@ -1876,9 +1252,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:11">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B18" s="6">
         <v>7.6</v>
@@ -1911,9 +1287,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:11">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B19" s="6">
         <v>7.4</v>
@@ -1922,7 +1298,7 @@
         <v>7.4</v>
       </c>
       <c r="D19" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E19" s="6">
         <v>0.9</v>
@@ -1934,7 +1310,7 @@
         <v>3.3</v>
       </c>
       <c r="H19" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I19" s="6">
         <v>24.2</v>
@@ -1946,9 +1322,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B20" s="6">
         <v>7.5</v>
@@ -1981,9 +1357,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B21" s="6">
         <v>7.3</v>
@@ -2004,7 +1380,7 @@
         <v>3.2</v>
       </c>
       <c r="H21" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I21" s="6">
         <v>24.2</v>
@@ -2016,9 +1392,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:11">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B22" s="6">
         <v>7.5</v>
@@ -2039,7 +1415,7 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I22" s="6">
         <v>25.3</v>
@@ -2051,9 +1427,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:11">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B23" s="6">
         <v>7.3</v>
@@ -2086,9 +1462,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:11">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B24" s="6">
         <v>7.5</v>
@@ -2109,7 +1485,7 @@
         <v>3.4</v>
       </c>
       <c r="H24" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I24" s="6">
         <v>23</v>
@@ -2121,9 +1497,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B25" s="6">
         <v>7.4</v>
@@ -2135,13 +1511,13 @@
         <v>10.3</v>
       </c>
       <c r="E25" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H25" s="6">
         <v>50.3</v>
@@ -2159,9 +1535,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B26" s="6">
         <v>7.4</v>
@@ -2182,7 +1558,7 @@
         <v>12.6</v>
       </c>
       <c r="H26" s="6">
-        <v>80.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="I26" s="6">
         <v>85.6</v>
@@ -2190,13 +1566,13 @@
       <c r="J26" s="15">
         <v>61.2</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:11">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B27" s="6">
         <v>7.5</v>
@@ -2217,7 +1593,7 @@
         <v>17.8</v>
       </c>
       <c r="H27" s="6">
-        <v>153.2</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="I27" s="6">
         <v>169.3</v>
@@ -2229,9 +1605,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:11">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B28" s="6">
         <v>7.6</v>
@@ -2264,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:11">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -2278,7 +1654,7 @@
         <v>102.2</v>
       </c>
       <c r="E29" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -2299,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="2:11">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7.6</v>
       </c>
@@ -2307,7 +1683,7 @@
         <v>7.5</v>
       </c>
       <c r="D30">
-        <v>130.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="E30">
         <v>1.2</v>
@@ -2331,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="2:11">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7.5</v>
       </c>
@@ -2339,19 +1715,19 @@
         <v>7.4</v>
       </c>
       <c r="D31">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="E31">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>70.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H31">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="I31">
         <v>348.2</v>
@@ -2359,11 +1735,11 @@
       <c r="J31">
         <v>62.5</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:11">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7.6</v>
       </c>
@@ -2383,7 +1759,7 @@
         <v>70.5</v>
       </c>
       <c r="H32">
-        <v>276.4</v>
+        <v>276.39999999999998</v>
       </c>
       <c r="I32">
         <v>341.2</v>
@@ -2395,8 +1771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -2427,16 +1802,16 @@
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B38" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C38" s="4">
         <v>7.2</v>
@@ -2445,7 +1820,7 @@
         <v>6.2</v>
       </c>
       <c r="E38" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -2466,9 +1841,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B39" s="6">
         <v>8.6</v>
@@ -2501,7 +1876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -2524,7 +1899,7 @@
         <v>3.6</v>
       </c>
       <c r="H40" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I40" s="6">
         <v>26</v>
@@ -2536,9 +1911,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B41" s="6">
         <v>8</v>
@@ -2571,12 +1946,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B42" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C42" s="6">
         <v>7.3</v>
@@ -2606,15 +1981,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B43" s="6">
         <v>7.9</v>
       </c>
       <c r="C43" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D43" s="6">
         <v>5.6</v>
@@ -2629,7 +2004,7 @@
         <v>3.7</v>
       </c>
       <c r="H43" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I43" s="6">
         <v>26.3</v>
@@ -2641,9 +2016,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B44" s="6">
         <v>7.8</v>
@@ -2661,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H44" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I44" s="6">
         <v>31.7</v>
@@ -2676,9 +2051,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B45" s="6">
         <v>7.8</v>
@@ -2711,9 +2086,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B46" s="6">
         <v>7.9</v>
@@ -2734,7 +2109,7 @@
         <v>8.9</v>
       </c>
       <c r="H46" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I46" s="6">
         <v>32</v>
@@ -2746,9 +2121,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B47" s="6">
         <v>7.8</v>
@@ -2781,9 +2156,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B48" s="6">
         <v>7.7</v>
@@ -2804,7 +2179,7 @@
         <v>3.3</v>
       </c>
       <c r="H48" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I48" s="6">
         <v>25.1</v>
@@ -2816,9 +2191,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:11">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B49" s="6">
         <v>7.7</v>
@@ -2830,7 +2205,7 @@
         <v>5.4</v>
       </c>
       <c r="E49" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -2851,9 +2226,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:11">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B50" s="6">
         <v>7.6</v>
@@ -2874,7 +2249,7 @@
         <v>3.4</v>
       </c>
       <c r="H50" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I50" s="6">
         <v>25.7</v>
@@ -2886,9 +2261,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:11">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B51" s="6">
         <v>7.6</v>
@@ -2921,9 +2296,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:11">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B52" s="6">
         <v>7.6</v>
@@ -2956,9 +2331,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:11">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B53" s="6">
         <v>7.7</v>
@@ -2991,9 +2366,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:11">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B54" s="6">
         <v>7.6</v>
@@ -3026,9 +2401,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:11">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B55" s="6">
         <v>7.4</v>
@@ -3037,7 +2412,7 @@
         <v>7.4</v>
       </c>
       <c r="D55" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E55" s="6">
         <v>0.9</v>
@@ -3049,7 +2424,7 @@
         <v>3.3</v>
       </c>
       <c r="H55" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I55" s="6">
         <v>24.2</v>
@@ -3061,9 +2436,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:11">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B56" s="6">
         <v>7.5</v>
@@ -3096,9 +2471,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:11">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B57" s="6">
         <v>7.3</v>
@@ -3119,7 +2494,7 @@
         <v>3.2</v>
       </c>
       <c r="H57" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I57" s="6">
         <v>24.2</v>
@@ -3131,9 +2506,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:11">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B58" s="6">
         <v>7.5</v>
@@ -3154,7 +2529,7 @@
         <v>3.5</v>
       </c>
       <c r="H58" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I58" s="6">
         <v>25.3</v>
@@ -3166,9 +2541,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:11">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B59" s="6">
         <v>7.3</v>
@@ -3201,9 +2576,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:11">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B60" s="6">
         <v>7.5</v>
@@ -3224,7 +2599,7 @@
         <v>3.4</v>
       </c>
       <c r="H60" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I60" s="6">
         <v>23</v>
@@ -3236,9 +2611,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B61" s="6">
         <v>12.5</v>
@@ -3250,7 +2625,7 @@
         <v>5.3</v>
       </c>
       <c r="E61" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -3259,7 +2634,7 @@
         <v>3.5</v>
       </c>
       <c r="H61" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I61" s="6">
         <v>29.3</v>
@@ -3267,16 +2642,16 @@
       <c r="J61" s="15">
         <v>62.4</v>
       </c>
-      <c r="K61" s="18" t="s">
+      <c r="K61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L61" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B62" s="6">
         <v>31.5</v>
@@ -3297,7 +2672,7 @@
         <v>3.5</v>
       </c>
       <c r="H62" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I62" s="6">
         <v>50.3</v>
@@ -3305,13 +2680,13 @@
       <c r="J62" s="15">
         <v>61.2</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="K62" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B63" s="6">
         <v>82.1</v>
@@ -3340,13 +2715,13 @@
       <c r="J63" s="15">
         <v>63.4</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K63" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B64" s="6">
         <v>98.6</v>
@@ -3370,16 +2745,16 @@
         <v>9.9</v>
       </c>
       <c r="I64" s="6">
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="J64" s="15">
         <v>60.2</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="K64" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -3393,7 +2768,7 @@
         <v>5.3</v>
       </c>
       <c r="E65" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -3410,11 +2785,11 @@
       <c r="J65" s="15">
         <v>63.7</v>
       </c>
-      <c r="K65" s="18" t="s">
+      <c r="K65" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="2:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>124.5</v>
       </c>
@@ -3434,7 +2809,7 @@
         <v>3.7</v>
       </c>
       <c r="H66">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I66">
         <v>171.3</v>
@@ -3442,11 +2817,11 @@
       <c r="J66">
         <v>61.4</v>
       </c>
-      <c r="K66" s="18" t="s">
+      <c r="K66" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="2:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>123.5</v>
       </c>
@@ -3457,7 +2832,7 @@
         <v>5.3</v>
       </c>
       <c r="E67">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F67" s="6">
         <v>0</v>
@@ -3466,7 +2841,7 @@
         <v>3.6</v>
       </c>
       <c r="H67">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I67">
         <v>169.2</v>
@@ -3474,11 +2849,11 @@
       <c r="J67">
         <v>62.5</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="K67" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="2:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>125.1</v>
       </c>
@@ -3506,11 +2881,11 @@
       <c r="J68">
         <v>63.1</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="K68" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -3541,16 +2916,16 @@
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K70" s="17" t="s">
+      <c r="K70" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B71" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C71" s="4">
         <v>7.2</v>
@@ -3559,7 +2934,7 @@
         <v>6.2</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -3580,9 +2955,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B72" s="6">
         <v>8.6</v>
@@ -3615,7 +2990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -3638,7 +3013,7 @@
         <v>3.6</v>
       </c>
       <c r="H73" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I73" s="6">
         <v>26</v>
@@ -3650,9 +3025,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B74" s="6">
         <v>8</v>
@@ -3685,12 +3060,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B75" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C75" s="6">
         <v>7.3</v>
@@ -3720,15 +3095,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B76" s="6">
         <v>7.9</v>
       </c>
       <c r="C76" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D76" s="6">
         <v>5.6</v>
@@ -3743,7 +3118,7 @@
         <v>3.7</v>
       </c>
       <c r="H76" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I76" s="6">
         <v>26.3</v>
@@ -3755,9 +3130,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B77" s="6">
         <v>7.8</v>
@@ -3775,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H77" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I77" s="6">
         <v>31.7</v>
@@ -3790,9 +3165,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B78" s="6">
         <v>7.8</v>
@@ -3825,9 +3200,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B79" s="6">
         <v>7.9</v>
@@ -3848,7 +3223,7 @@
         <v>8.9</v>
       </c>
       <c r="H79" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I79" s="6">
         <v>32</v>
@@ -3860,9 +3235,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B80" s="6">
         <v>7.8</v>
@@ -3895,9 +3270,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:11">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B81" s="6">
         <v>7.7</v>
@@ -3918,7 +3293,7 @@
         <v>3.3</v>
       </c>
       <c r="H81" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I81" s="6">
         <v>25.1</v>
@@ -3930,9 +3305,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:11">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B82" s="6">
         <v>7.7</v>
@@ -3944,7 +3319,7 @@
         <v>5.4</v>
       </c>
       <c r="E82" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -3965,9 +3340,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:11">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B83" s="6">
         <v>7.6</v>
@@ -3988,7 +3363,7 @@
         <v>3.4</v>
       </c>
       <c r="H83" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I83" s="6">
         <v>25.7</v>
@@ -4000,9 +3375,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:11">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B84" s="6">
         <v>7.6</v>
@@ -4035,9 +3410,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:11">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B85" s="6">
         <v>7.6</v>
@@ -4070,9 +3445,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:11">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B86" s="6">
         <v>7.7</v>
@@ -4105,9 +3480,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:11">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B87" s="6">
         <v>7.6</v>
@@ -4140,9 +3515,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:11">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B88" s="6">
         <v>7.4</v>
@@ -4151,7 +3526,7 @@
         <v>7.4</v>
       </c>
       <c r="D88" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E88" s="6">
         <v>0.9</v>
@@ -4163,7 +3538,7 @@
         <v>3.3</v>
       </c>
       <c r="H88" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I88" s="6">
         <v>24.2</v>
@@ -4175,9 +3550,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:11">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B89" s="6">
         <v>7.5</v>
@@ -4210,9 +3585,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:11">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B90" s="6">
         <v>7.3</v>
@@ -4233,7 +3608,7 @@
         <v>3.2</v>
       </c>
       <c r="H90" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I90" s="6">
         <v>24.2</v>
@@ -4245,9 +3620,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:11">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B91" s="6">
         <v>7.5</v>
@@ -4268,7 +3643,7 @@
         <v>3.5</v>
       </c>
       <c r="H91" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I91" s="6">
         <v>25.3</v>
@@ -4280,9 +3655,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:11">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B92" s="6">
         <v>7.3</v>
@@ -4315,9 +3690,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:11">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B93" s="6">
         <v>7.5</v>
@@ -4338,7 +3713,7 @@
         <v>3.4</v>
       </c>
       <c r="H93" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I93" s="6">
         <v>23</v>
@@ -4350,9 +3725,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B94" s="6">
         <v>12.5</v>
@@ -4364,10 +3739,10 @@
         <v>5.3</v>
       </c>
       <c r="E94" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F94" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G94" s="6">
         <v>3.5</v>
@@ -4381,16 +3756,16 @@
       <c r="J94" s="15">
         <v>62.4</v>
       </c>
-      <c r="K94" s="18" t="s">
+      <c r="K94" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="16" t="s">
+      <c r="L94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B95" s="6">
         <v>31.5</v>
@@ -4419,13 +3794,13 @@
       <c r="J95" s="15">
         <v>61.2</v>
       </c>
-      <c r="K95" s="18" t="s">
+      <c r="K95" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B96" s="6">
         <v>82.1</v>
@@ -4449,18 +3824,18 @@
         <v>39.6</v>
       </c>
       <c r="I96" s="6">
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="J96" s="15">
         <v>63.4</v>
       </c>
-      <c r="K96" s="18" t="s">
+      <c r="K96" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B97" s="6">
         <v>98.6</v>
@@ -4484,16 +3859,16 @@
         <v>53.4</v>
       </c>
       <c r="I97" s="6">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="J97" s="15">
         <v>60.2</v>
       </c>
-      <c r="K97" s="18" t="s">
+      <c r="K97" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -4507,7 +3882,7 @@
         <v>5.3</v>
       </c>
       <c r="E98" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F98" s="6">
         <v>45.2</v>
@@ -4524,11 +3899,11 @@
       <c r="J98" s="15">
         <v>63.7</v>
       </c>
-      <c r="K98" s="18" t="s">
+      <c r="K98" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>124.5</v>
       </c>
@@ -4548,7 +3923,7 @@
         <v>3.7</v>
       </c>
       <c r="H99">
-        <v>161.3</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="I99">
         <v>341.2</v>
@@ -4556,11 +3931,11 @@
       <c r="J99">
         <v>61.4</v>
       </c>
-      <c r="K99" s="18" t="s">
+      <c r="K99" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="2:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>123.5</v>
       </c>
@@ -4571,7 +3946,7 @@
         <v>5.3</v>
       </c>
       <c r="E100">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F100">
         <v>61.3</v>
@@ -4588,11 +3963,11 @@
       <c r="J100">
         <v>62.5</v>
       </c>
-      <c r="K100" s="18" t="s">
+      <c r="K100" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="2:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>125.1</v>
       </c>
@@ -4620,11 +3995,11 @@
       <c r="J101">
         <v>63.1</v>
       </c>
-      <c r="K101" s="18" t="s">
+      <c r="K101" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>0</v>
       </c>
@@ -4655,16 +4030,16 @@
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K102" s="17" t="s">
+      <c r="K102" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B103" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C103" s="4">
         <v>7.2</v>
@@ -4673,7 +4048,7 @@
         <v>6.2</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -4694,9 +4069,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B104" s="6">
         <v>8.6</v>
@@ -4729,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -4752,7 +4127,7 @@
         <v>3.6</v>
       </c>
       <c r="H105" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I105" s="6">
         <v>26</v>
@@ -4764,9 +4139,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B106" s="6">
         <v>8</v>
@@ -4799,12 +4174,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B107" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C107" s="6">
         <v>7.3</v>
@@ -4834,15 +4209,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B108" s="6">
         <v>7.9</v>
       </c>
       <c r="C108" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D108" s="6">
         <v>5.6</v>
@@ -4857,7 +4232,7 @@
         <v>3.7</v>
       </c>
       <c r="H108" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I108" s="6">
         <v>26.3</v>
@@ -4869,9 +4244,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B109" s="6">
         <v>7.8</v>
@@ -4889,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H109" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I109" s="6">
         <v>31.7</v>
@@ -4904,9 +4279,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B110" s="6">
         <v>7.8</v>
@@ -4939,9 +4314,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B111" s="6">
         <v>7.9</v>
@@ -4962,7 +4337,7 @@
         <v>8.9</v>
       </c>
       <c r="H111" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I111" s="6">
         <v>32</v>
@@ -4974,9 +4349,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B112" s="6">
         <v>7.8</v>
@@ -5009,9 +4384,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:11">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B113" s="6">
         <v>7.7</v>
@@ -5032,7 +4407,7 @@
         <v>3.3</v>
       </c>
       <c r="H113" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I113" s="6">
         <v>25.1</v>
@@ -5044,9 +4419,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:11">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B114" s="6">
         <v>7.7</v>
@@ -5058,7 +4433,7 @@
         <v>5.4</v>
       </c>
       <c r="E114" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -5079,9 +4454,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:11">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B115" s="6">
         <v>7.6</v>
@@ -5102,7 +4477,7 @@
         <v>3.4</v>
       </c>
       <c r="H115" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I115" s="6">
         <v>25.7</v>
@@ -5114,9 +4489,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:11">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B116" s="6">
         <v>7.6</v>
@@ -5149,9 +4524,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:11">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B117" s="6">
         <v>7.6</v>
@@ -5184,9 +4559,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:11">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B118" s="6">
         <v>7.7</v>
@@ -5219,9 +4594,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:11">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B119" s="6">
         <v>7.6</v>
@@ -5254,9 +4629,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:11">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B120" s="6">
         <v>7.4</v>
@@ -5265,7 +4640,7 @@
         <v>7.4</v>
       </c>
       <c r="D120" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E120" s="6">
         <v>0.9</v>
@@ -5277,7 +4652,7 @@
         <v>3.3</v>
       </c>
       <c r="H120" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I120" s="6">
         <v>24.2</v>
@@ -5289,9 +4664,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:11">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B121" s="6">
         <v>7.5</v>
@@ -5324,9 +4699,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:11">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B122" s="6">
         <v>7.3</v>
@@ -5347,7 +4722,7 @@
         <v>3.2</v>
       </c>
       <c r="H122" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I122" s="6">
         <v>24.2</v>
@@ -5359,9 +4734,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:11">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B123" s="6">
         <v>7.5</v>
@@ -5382,7 +4757,7 @@
         <v>3.5</v>
       </c>
       <c r="H123" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I123" s="6">
         <v>25.3</v>
@@ -5394,9 +4769,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:11">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B124" s="6">
         <v>7.3</v>
@@ -5429,9 +4804,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:11">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B125" s="6">
         <v>7.5</v>
@@ -5452,7 +4827,7 @@
         <v>3.4</v>
       </c>
       <c r="H125" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I125" s="6">
         <v>23</v>
@@ -5464,9 +4839,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B126" s="6">
         <v>12.5</v>
@@ -5478,13 +4853,13 @@
         <v>10.3</v>
       </c>
       <c r="E126" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F126" s="6">
         <v>0.6</v>
       </c>
       <c r="G126" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H126" s="6">
         <v>62.9</v>
@@ -5498,13 +4873,13 @@
       <c r="K126" t="s">
         <v>19</v>
       </c>
-      <c r="L126" s="16" t="s">
+      <c r="L126" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:11">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B127" s="6">
         <v>31.5</v>
@@ -5519,7 +4894,7 @@
         <v>16.2</v>
       </c>
       <c r="F127" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G127" s="6">
         <v>12.6</v>
@@ -5528,7 +4903,7 @@
         <v>106.3</v>
       </c>
       <c r="I127" s="6">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="J127" s="15">
         <v>86.7</v>
@@ -5537,9 +4912,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B128" s="6">
         <v>82.1</v>
@@ -5572,9 +4947,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B129" s="6">
         <v>98.6</v>
@@ -5607,7 +4982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -5630,7 +5005,7 @@
         <v>48.2</v>
       </c>
       <c r="H130" s="6">
-        <v>631.2</v>
+        <v>631.20000000000005</v>
       </c>
       <c r="I130" s="6">
         <v>921.3</v>
@@ -5642,8 +5017,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="19"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
       <c r="B131">
         <v>124.5</v>
       </c>
@@ -5660,7 +5035,7 @@
         <v>25.3</v>
       </c>
       <c r="G131" s="15">
-        <v>75.1</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="H131" s="15">
         <v>953.2</v>
@@ -5675,7 +5050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>123.5</v>
       </c>
@@ -5686,13 +5061,13 @@
         <v>94.6</v>
       </c>
       <c r="E132">
-        <v>72.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="F132">
         <v>27.3</v>
       </c>
       <c r="G132">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="H132">
         <v>942.3</v>
@@ -5707,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="2:11">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>125.1</v>
       </c>
@@ -5739,7 +5114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:11">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>0</v>
       </c>
@@ -5770,16 +5145,16 @@
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="17" t="s">
+      <c r="K134" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B135" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C135" s="4">
         <v>7.2</v>
@@ -5788,7 +5163,7 @@
         <v>6.2</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F135" s="4">
         <v>0</v>
@@ -5809,9 +5184,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B136" s="6">
         <v>8.6</v>
@@ -5844,7 +5219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -5867,7 +5242,7 @@
         <v>3.6</v>
       </c>
       <c r="H137" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I137" s="6">
         <v>26</v>
@@ -5879,9 +5254,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B138" s="6">
         <v>8</v>
@@ -5914,12 +5289,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B139" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C139" s="6">
         <v>7.3</v>
@@ -5949,15 +5324,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B140" s="6">
         <v>7.9</v>
       </c>
       <c r="C140" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D140" s="6">
         <v>5.6</v>
@@ -5972,7 +5347,7 @@
         <v>3.7</v>
       </c>
       <c r="H140" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I140" s="6">
         <v>26.3</v>
@@ -5984,9 +5359,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B141" s="6">
         <v>7.8</v>
@@ -6004,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H141" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I141" s="6">
         <v>31.7</v>
@@ -6019,9 +5394,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B142" s="6">
         <v>7.8</v>
@@ -6054,9 +5429,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B143" s="6">
         <v>7.9</v>
@@ -6077,7 +5452,7 @@
         <v>8.9</v>
       </c>
       <c r="H143" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I143" s="6">
         <v>32</v>
@@ -6089,9 +5464,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B144" s="6">
         <v>7.8</v>
@@ -6124,9 +5499,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:11">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B145" s="6">
         <v>7.7</v>
@@ -6147,7 +5522,7 @@
         <v>3.3</v>
       </c>
       <c r="H145" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I145" s="6">
         <v>25.1</v>
@@ -6159,9 +5534,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:11">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B146" s="6">
         <v>7.7</v>
@@ -6173,7 +5548,7 @@
         <v>5.4</v>
       </c>
       <c r="E146" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F146" s="6">
         <v>0</v>
@@ -6194,9 +5569,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:11">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B147" s="6">
         <v>7.6</v>
@@ -6217,7 +5592,7 @@
         <v>3.4</v>
       </c>
       <c r="H147" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I147" s="6">
         <v>25.7</v>
@@ -6229,9 +5604,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:11">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B148" s="6">
         <v>7.6</v>
@@ -6264,9 +5639,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:11">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B149" s="6">
         <v>7.6</v>
@@ -6299,9 +5674,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:11">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B150" s="6">
         <v>7.7</v>
@@ -6334,9 +5709,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:11">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B151" s="6">
         <v>7.6</v>
@@ -6369,9 +5744,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:11">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B152" s="6">
         <v>7.4</v>
@@ -6380,7 +5755,7 @@
         <v>7.4</v>
       </c>
       <c r="D152" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E152" s="6">
         <v>0.9</v>
@@ -6392,7 +5767,7 @@
         <v>3.3</v>
       </c>
       <c r="H152" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I152" s="6">
         <v>24.2</v>
@@ -6404,9 +5779,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:11">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B153" s="6">
         <v>7.5</v>
@@ -6439,9 +5814,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B154" s="6">
         <v>7.3</v>
@@ -6462,7 +5837,7 @@
         <v>3.2</v>
       </c>
       <c r="H154" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I154" s="6">
         <v>24.2</v>
@@ -6474,9 +5849,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B155" s="6">
         <v>7.5</v>
@@ -6497,7 +5872,7 @@
         <v>3.5</v>
       </c>
       <c r="H155" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I155" s="6">
         <v>25.3</v>
@@ -6509,9 +5884,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B156" s="6">
         <v>7.3</v>
@@ -6544,9 +5919,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:11">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B157" s="6">
         <v>7.5</v>
@@ -6567,7 +5942,7 @@
         <v>3.4</v>
       </c>
       <c r="H157" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I157" s="6">
         <v>23</v>
@@ -6579,56 +5954,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B158" s="6">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="C158" s="6">
-        <v>6.9</v>
+        <v>13.2</v>
       </c>
       <c r="D158" s="6">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E158" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F158" s="6">
         <v>0</v>
       </c>
       <c r="G158" s="6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H158" s="6">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I158" s="6">
-        <v>21</v>
+        <v>31.5</v>
       </c>
       <c r="J158" s="15">
-        <v>62.4</v>
+        <v>72.5</v>
       </c>
       <c r="K158" t="s">
         <v>21</v>
       </c>
-      <c r="L158" s="16" t="s">
+      <c r="L158" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:11">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B159" s="6">
-        <v>6.9</v>
+        <v>12.4</v>
       </c>
       <c r="C159" s="6">
-        <v>6.1</v>
+        <v>32.5</v>
       </c>
       <c r="D159" s="6">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="E159" s="6">
         <v>0.9</v>
@@ -6637,33 +6012,33 @@
         <v>0</v>
       </c>
       <c r="G159" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="H159" s="20">
-        <v>9</v>
+        <v>3.5</v>
+      </c>
+      <c r="H159" s="6">
+        <v>9.8000000000000007</v>
       </c>
       <c r="I159" s="6">
-        <v>18</v>
+        <v>49.5</v>
       </c>
       <c r="J159" s="15">
-        <v>61.2</v>
+        <v>86.7</v>
       </c>
       <c r="K159" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:11">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B160" s="6">
-        <v>5.7</v>
+        <v>21.5</v>
       </c>
       <c r="C160" s="6">
-        <v>5.2</v>
+        <v>76.5</v>
       </c>
       <c r="D160" s="6">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="E160" s="6">
         <v>0.8</v>
@@ -6672,189 +6047,188 @@
         <v>0</v>
       </c>
       <c r="G160" s="6">
-        <v>1.1</v>
-      </c>
-      <c r="H160" s="20">
-        <v>7.2</v>
+        <v>3.6</v>
+      </c>
+      <c r="H160" s="6">
+        <v>9.6</v>
       </c>
       <c r="I160" s="6">
-        <v>13</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="J160" s="15">
-        <v>63.4</v>
+        <v>89.4</v>
       </c>
       <c r="K160" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B161" s="6">
-        <v>3.1</v>
+        <v>38.6</v>
       </c>
       <c r="C161" s="6">
-        <v>3.2</v>
+        <v>96.2</v>
       </c>
       <c r="D161" s="6">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="E161" s="6">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
       </c>
       <c r="G161" s="6">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H161" s="6">
-        <v>4.2</v>
+        <v>9.9</v>
       </c>
       <c r="I161" s="6">
-        <v>9</v>
+        <v>192.3</v>
       </c>
       <c r="J161" s="15">
-        <v>60.2</v>
+        <v>91.3</v>
       </c>
       <c r="K161" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>44742.2793634259</v>
       </c>
       <c r="B162" s="6">
-        <v>1.1</v>
+        <v>68.2</v>
       </c>
       <c r="C162" s="6">
-        <v>1.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D162" s="6">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="E162" s="6">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
       </c>
       <c r="G162" s="6">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H162" s="6">
-        <v>1.1</v>
+        <v>9.9</v>
       </c>
       <c r="I162" s="6">
-        <v>8</v>
+        <v>225.1</v>
       </c>
       <c r="J162" s="15">
-        <v>63.7</v>
+        <v>96.7</v>
       </c>
       <c r="K162" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="19"/>
-      <c r="B163" s="15">
-        <v>0.2</v>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>72.3</v>
       </c>
       <c r="C163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D163" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="E163" s="15">
-        <v>0.1</v>
+        <v>178.3</v>
+      </c>
+      <c r="D163">
+        <v>5.3</v>
+      </c>
+      <c r="E163">
+        <v>1.2</v>
       </c>
       <c r="F163" s="6">
         <v>0</v>
       </c>
-      <c r="G163" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="H163" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="I163" s="15">
-        <v>6</v>
+      <c r="G163">
+        <v>3.7</v>
+      </c>
+      <c r="H163">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I163">
+        <v>315.60000000000002</v>
       </c>
       <c r="J163">
-        <v>61.4</v>
+        <v>109.3</v>
       </c>
       <c r="K163" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="2:11">
-      <c r="B164" s="21">
-        <v>0.3</v>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>75.3</v>
       </c>
       <c r="C164">
-        <v>0.4</v>
-      </c>
-      <c r="D164">
-        <v>0.3</v>
+        <v>179.2</v>
+      </c>
+      <c r="D164" s="6">
+        <v>5.3</v>
       </c>
       <c r="E164">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F164" s="6">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H164">
-        <v>0.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="J164">
-        <v>62.5</v>
+        <v>108.6</v>
       </c>
       <c r="K164" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="2:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>0.1</v>
+        <v>74.2</v>
       </c>
       <c r="C165">
-        <v>0.4</v>
-      </c>
-      <c r="D165">
-        <v>0.3</v>
+        <v>184.3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>5.3</v>
       </c>
       <c r="E165">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
-      </c>
-      <c r="H165" s="21">
-        <v>0.7</v>
+        <v>3.7</v>
+      </c>
+      <c r="H165">
+        <v>9.9</v>
       </c>
       <c r="I165">
-        <v>6</v>
+        <v>317.2</v>
       </c>
       <c r="J165">
-        <v>63.1</v>
+        <v>109.3</v>
       </c>
       <c r="K165" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>0</v>
       </c>
@@ -6885,16 +6259,16 @@
       <c r="J166" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K166" s="17" t="s">
+      <c r="K166" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B167" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C167" s="4">
         <v>7.2</v>
@@ -6903,7 +6277,7 @@
         <v>6.2</v>
       </c>
       <c r="E167" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F167" s="4">
         <v>0</v>
@@ -6924,9 +6298,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B168" s="6">
         <v>8.6</v>
@@ -6959,7 +6333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -6982,7 +6356,7 @@
         <v>3.6</v>
       </c>
       <c r="H169" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I169" s="6">
         <v>26</v>
@@ -6994,9 +6368,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B170" s="6">
         <v>8</v>
@@ -7029,12 +6403,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B171" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C171" s="6">
         <v>7.3</v>
@@ -7064,15 +6438,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B172" s="6">
         <v>7.9</v>
       </c>
       <c r="C172" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D172" s="6">
         <v>5.6</v>
@@ -7087,7 +6461,7 @@
         <v>3.7</v>
       </c>
       <c r="H172" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I172" s="6">
         <v>26.3</v>
@@ -7099,9 +6473,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B173" s="6">
         <v>7.8</v>
@@ -7119,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="G173" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H173" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I173" s="6">
         <v>31.7</v>
@@ -7134,9 +6508,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B174" s="6">
         <v>7.8</v>
@@ -7169,9 +6543,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B175" s="6">
         <v>7.9</v>
@@ -7192,7 +6566,7 @@
         <v>8.9</v>
       </c>
       <c r="H175" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I175" s="6">
         <v>32</v>
@@ -7204,9 +6578,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B176" s="6">
         <v>7.8</v>
@@ -7239,9 +6613,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B177" s="6">
         <v>7.7</v>
@@ -7262,7 +6636,7 @@
         <v>3.3</v>
       </c>
       <c r="H177" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I177" s="6">
         <v>25.1</v>
@@ -7274,9 +6648,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B178" s="6">
         <v>7.7</v>
@@ -7288,7 +6662,7 @@
         <v>5.4</v>
       </c>
       <c r="E178" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
@@ -7309,9 +6683,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B179" s="6">
         <v>7.6</v>
@@ -7332,7 +6706,7 @@
         <v>3.4</v>
       </c>
       <c r="H179" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I179" s="6">
         <v>25.7</v>
@@ -7344,9 +6718,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B180" s="6">
         <v>7.6</v>
@@ -7379,9 +6753,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B181" s="6">
         <v>7.6</v>
@@ -7414,9 +6788,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B182" s="6">
         <v>7.7</v>
@@ -7449,9 +6823,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B183" s="6">
         <v>7.6</v>
@@ -7484,9 +6858,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B184" s="6">
         <v>7.4</v>
@@ -7495,7 +6869,7 @@
         <v>7.4</v>
       </c>
       <c r="D184" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E184" s="6">
         <v>0.9</v>
@@ -7507,7 +6881,7 @@
         <v>3.3</v>
       </c>
       <c r="H184" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I184" s="6">
         <v>24.2</v>
@@ -7519,9 +6893,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B185" s="6">
         <v>7.5</v>
@@ -7554,9 +6928,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B186" s="6">
         <v>7.3</v>
@@ -7577,7 +6951,7 @@
         <v>3.2</v>
       </c>
       <c r="H186" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I186" s="6">
         <v>24.2</v>
@@ -7589,9 +6963,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B187" s="6">
         <v>7.5</v>
@@ -7612,7 +6986,7 @@
         <v>3.5</v>
       </c>
       <c r="H187" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I187" s="6">
         <v>25.3</v>
@@ -7624,9 +6998,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B188" s="6">
         <v>7.3</v>
@@ -7659,9 +7033,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B189" s="6">
         <v>7.5</v>
@@ -7682,7 +7056,7 @@
         <v>3.4</v>
       </c>
       <c r="H189" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I189" s="6">
         <v>23</v>
@@ -7694,21 +7068,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B190" s="6">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="C190" s="6">
-        <v>13.2</v>
+        <v>7.6</v>
       </c>
       <c r="D190" s="6">
         <v>5.3</v>
       </c>
       <c r="E190" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F190" s="6">
         <v>0</v>
@@ -7717,30 +7091,24 @@
         <v>3.5</v>
       </c>
       <c r="H190" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I190" s="6">
-        <v>31.5</v>
+        <v>23.2</v>
       </c>
       <c r="J190" s="15">
-        <v>72.5</v>
-      </c>
-      <c r="K190" t="s">
-        <v>23</v>
-      </c>
-      <c r="L190" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" ht="14.25" spans="1:11">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B191" s="6">
-        <v>12.4</v>
+        <v>7.4</v>
       </c>
       <c r="C191" s="6">
-        <v>32.5</v>
+        <v>7.5</v>
       </c>
       <c r="D191" s="6">
         <v>5.3</v>
@@ -7755,27 +7123,24 @@
         <v>3.5</v>
       </c>
       <c r="H191" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I191" s="6">
-        <v>49.5</v>
+        <v>22.5</v>
       </c>
       <c r="J191" s="15">
-        <v>86.7</v>
-      </c>
-      <c r="K191" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B192" s="6">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
       <c r="C192" s="6">
-        <v>76.5</v>
+        <v>7.5</v>
       </c>
       <c r="D192" s="6">
         <v>5.3</v>
@@ -7793,24 +7158,21 @@
         <v>9.6</v>
       </c>
       <c r="I192" s="6">
-        <v>146.3</v>
+        <v>22.1</v>
       </c>
       <c r="J192" s="15">
-        <v>89.4</v>
-      </c>
-      <c r="K192" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B193" s="6">
-        <v>38.6</v>
+        <v>7.6</v>
       </c>
       <c r="C193" s="6">
-        <v>96.2</v>
+        <v>7.4</v>
       </c>
       <c r="D193" s="6">
         <v>5.3</v>
@@ -7828,30 +7190,27 @@
         <v>9.9</v>
       </c>
       <c r="I193" s="6">
-        <v>192.3</v>
+        <v>21.6</v>
       </c>
       <c r="J193" s="15">
-        <v>91.3</v>
-      </c>
-      <c r="K193" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25" spans="1:11">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>44742.2793634259</v>
       </c>
       <c r="B194" s="6">
-        <v>68.2</v>
+        <v>7.4</v>
       </c>
       <c r="C194" s="6">
-        <v>130.3</v>
+        <v>7.4</v>
       </c>
       <c r="D194" s="6">
         <v>5.3</v>
       </c>
       <c r="E194" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F194" s="6">
         <v>0</v>
@@ -7863,1114 +7222,15 @@
         <v>9.9</v>
       </c>
       <c r="I194" s="6">
-        <v>225.1</v>
+        <v>21.2</v>
       </c>
       <c r="J194" s="15">
-        <v>96.7</v>
-      </c>
-      <c r="K194" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" ht="14.25" spans="2:11">
-      <c r="B195">
-        <v>72.3</v>
-      </c>
-      <c r="C195" s="15">
-        <v>178.3</v>
-      </c>
-      <c r="D195">
-        <v>5.3</v>
-      </c>
-      <c r="E195">
-        <v>1.2</v>
-      </c>
-      <c r="F195" s="6">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>3.7</v>
-      </c>
-      <c r="H195">
-        <v>9.8</v>
-      </c>
-      <c r="I195">
-        <v>315.6</v>
-      </c>
-      <c r="J195">
-        <v>109.3</v>
-      </c>
-      <c r="K195" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196" ht="14.25" spans="2:11">
-      <c r="B196">
-        <v>75.3</v>
-      </c>
-      <c r="C196">
-        <v>179.2</v>
-      </c>
-      <c r="D196" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E196">
-        <v>1.1</v>
-      </c>
-      <c r="F196" s="6">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>3.6</v>
-      </c>
-      <c r="H196">
-        <v>9.7</v>
-      </c>
-      <c r="I196">
-        <v>326.1</v>
-      </c>
-      <c r="J196">
-        <v>108.6</v>
-      </c>
-      <c r="K196" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" ht="14.25" spans="2:11">
-      <c r="B197">
-        <v>74.2</v>
-      </c>
-      <c r="C197">
-        <v>184.3</v>
-      </c>
-      <c r="D197" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E197">
-        <v>1.3</v>
-      </c>
-      <c r="F197" s="6">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>3.7</v>
-      </c>
-      <c r="H197">
-        <v>9.9</v>
-      </c>
-      <c r="I197">
-        <v>317.2</v>
-      </c>
-      <c r="J197">
-        <v>109.3</v>
-      </c>
-      <c r="K197" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" ht="14.25" spans="1:11">
-      <c r="A198" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K198" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" ht="14.25" spans="1:11">
-      <c r="A199" s="3">
-        <v>44714.7349537037</v>
-      </c>
-      <c r="B199" s="4">
-        <v>9.7</v>
-      </c>
-      <c r="C199" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="D199" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E199" s="4">
-        <v>1.1</v>
-      </c>
-      <c r="F199" s="4">
-        <v>0</v>
-      </c>
-      <c r="G199" s="4">
-        <v>4</v>
-      </c>
-      <c r="H199" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="I199" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="J199" s="11">
-        <v>60.4</v>
-      </c>
-      <c r="K199" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" spans="1:11">
-      <c r="A200" s="5">
-        <v>44715.3563541667</v>
-      </c>
-      <c r="B200" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="C200" s="6">
-        <v>7</v>
-      </c>
-      <c r="D200" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="E200" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F200" s="6">
-        <v>0</v>
-      </c>
-      <c r="G200" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H200" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="I200" s="6">
-        <v>25.9</v>
-      </c>
-      <c r="J200" s="13">
-        <v>64.5</v>
-      </c>
-      <c r="K200" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25" spans="1:11">
-      <c r="A201" s="5">
-        <v>44716.3581134259</v>
-      </c>
-      <c r="B201" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="C201" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="D201" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E201" s="6">
-        <v>1</v>
-      </c>
-      <c r="F201" s="6">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H201" s="6">
-        <v>10.2</v>
-      </c>
-      <c r="I201" s="6">
-        <v>26</v>
-      </c>
-      <c r="J201" s="13">
-        <v>63.4</v>
-      </c>
-      <c r="K201" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25" spans="1:11">
-      <c r="A202" s="5">
-        <v>44717.3584143519</v>
-      </c>
-      <c r="B202" s="6">
-        <v>8</v>
-      </c>
-      <c r="C202" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D202" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E202" s="6">
-        <v>1</v>
-      </c>
-      <c r="F202" s="6">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H202" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I202" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="J202" s="13">
-        <v>62.3</v>
-      </c>
-      <c r="K202" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25" spans="1:11">
-      <c r="A203" s="5">
-        <v>44718.3585069444</v>
-      </c>
-      <c r="B203" s="6">
-        <v>8.3</v>
-      </c>
-      <c r="C203" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="D203" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E203" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F203" s="6">
-        <v>0</v>
-      </c>
-      <c r="G203" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H203" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="I203" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="J203" s="13">
-        <v>64.3</v>
-      </c>
-      <c r="K203" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" ht="14.25" spans="1:11">
-      <c r="A204" s="5">
-        <v>44719.3586689815</v>
-      </c>
-      <c r="B204" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="C204" s="6">
-        <v>8.2</v>
-      </c>
-      <c r="D204" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E204" s="6">
-        <v>1</v>
-      </c>
-      <c r="F204" s="6">
-        <v>0</v>
-      </c>
-      <c r="G204" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H204" s="6">
-        <v>10.2</v>
-      </c>
-      <c r="I204" s="6">
-        <v>26.3</v>
-      </c>
-      <c r="J204" s="13">
-        <v>62.1</v>
-      </c>
-      <c r="K204" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" ht="14.25" spans="1:11">
-      <c r="A205" s="5">
-        <v>44720.357962963</v>
-      </c>
-      <c r="B205" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C205" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="D205" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E205" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0</v>
-      </c>
-      <c r="G205" s="6">
-        <v>8.8</v>
-      </c>
-      <c r="H205" s="6">
-        <v>16.4</v>
-      </c>
-      <c r="I205" s="6">
-        <v>31.7</v>
-      </c>
-      <c r="J205" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K205" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" spans="1:11">
-      <c r="A206" s="5">
-        <v>44721.3574537037</v>
-      </c>
-      <c r="B206" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C206" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D206" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E206" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F206" s="6">
-        <v>0</v>
-      </c>
-      <c r="G206" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="H206" s="6">
-        <v>12</v>
-      </c>
-      <c r="I206" s="6">
-        <v>27.9</v>
-      </c>
-      <c r="J206" s="13">
-        <v>59.2</v>
-      </c>
-      <c r="K206" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25" spans="1:11">
-      <c r="A207" s="5">
-        <v>44722.3578819444</v>
-      </c>
-      <c r="B207" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="C207" s="6">
-        <v>8</v>
-      </c>
-      <c r="D207" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="E207" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F207" s="6">
-        <v>0</v>
-      </c>
-      <c r="G207" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="H207" s="6">
-        <v>16.1</v>
-      </c>
-      <c r="I207" s="6">
-        <v>32</v>
-      </c>
-      <c r="J207" s="13">
-        <v>60.1</v>
-      </c>
-      <c r="K207" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25" spans="1:11">
-      <c r="A208" s="5">
-        <v>44723.3162731481</v>
-      </c>
-      <c r="B208" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C208" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="D208" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E208" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F208" s="6">
-        <v>0</v>
-      </c>
-      <c r="G208" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H208" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I208" s="6">
-        <v>25.2</v>
-      </c>
-      <c r="J208" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K208" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" ht="14.25" spans="1:11">
-      <c r="A209" s="5">
-        <v>44724.3164814815</v>
-      </c>
-      <c r="B209" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="C209" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="D209" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="E209" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F209" s="6">
-        <v>0</v>
-      </c>
-      <c r="G209" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H209" s="6">
-        <v>9.7</v>
-      </c>
-      <c r="I209" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="J209" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K209" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" ht="14.25" spans="1:11">
-      <c r="A210" s="5">
-        <v>44725.3162384259</v>
-      </c>
-      <c r="B210" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="C210" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="D210" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="E210" s="6">
-        <v>1.1</v>
-      </c>
-      <c r="F210" s="6">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H210" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="I210" s="6">
-        <v>25.6</v>
-      </c>
-      <c r="J210" s="13">
-        <v>63.1</v>
-      </c>
-      <c r="K210" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" ht="14.25" spans="1:11">
-      <c r="A211" s="5">
-        <v>44726.3175231482</v>
-      </c>
-      <c r="B211" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C211" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D211" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E211" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F211" s="6">
-        <v>0</v>
-      </c>
-      <c r="G211" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H211" s="6">
-        <v>9.7</v>
-      </c>
-      <c r="I211" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="J211" s="13">
-        <v>62.1</v>
-      </c>
-      <c r="K211" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" ht="14.25" spans="1:11">
-      <c r="A212" s="5">
-        <v>44727.3142824074</v>
-      </c>
-      <c r="B212" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C212" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="D212" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E212" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F212" s="6">
-        <v>0</v>
-      </c>
-      <c r="G212" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H212" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I212" s="6">
-        <v>24.9</v>
-      </c>
-      <c r="J212" s="13">
-        <v>63.2</v>
-      </c>
-      <c r="K212" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" ht="14.25" spans="1:11">
-      <c r="A213" s="5">
-        <v>44728.3165277778</v>
-      </c>
-      <c r="B213" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C213" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D213" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E213" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F213" s="6">
-        <v>0</v>
-      </c>
-      <c r="G213" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H213" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I213" s="6">
-        <v>24.7</v>
-      </c>
-      <c r="J213" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K213" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" ht="14.25" spans="1:11">
-      <c r="A214" s="5">
-        <v>44729.3155208333</v>
-      </c>
-      <c r="B214" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="C214" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D214" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E214" s="6">
-        <v>1</v>
-      </c>
-      <c r="F214" s="6">
-        <v>0</v>
-      </c>
-      <c r="G214" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H214" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I214" s="6">
-        <v>24.6</v>
-      </c>
-      <c r="J214" s="13">
-        <v>62.8</v>
-      </c>
-      <c r="K214" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" ht="14.25" spans="1:11">
-      <c r="A215" s="5">
-        <v>44730.3171643519</v>
-      </c>
-      <c r="B215" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C215" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="D215" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E215" s="6">
-        <v>1</v>
-      </c>
-      <c r="F215" s="6">
-        <v>0</v>
-      </c>
-      <c r="G215" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H215" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I215" s="6">
-        <v>24.9</v>
-      </c>
-      <c r="J215" s="13">
-        <v>58.7</v>
-      </c>
-      <c r="K215" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" ht="14.25" spans="1:11">
-      <c r="A216" s="5">
-        <v>44731.3168287037</v>
-      </c>
-      <c r="B216" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="C216" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="D216" s="6">
-        <v>5.1</v>
-      </c>
-      <c r="E216" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F216" s="6">
-        <v>0</v>
-      </c>
-      <c r="G216" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H216" s="6">
-        <v>9.3</v>
-      </c>
-      <c r="I216" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="J216" s="13">
-        <v>59.8</v>
-      </c>
-      <c r="K216" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" ht="14.25" spans="1:11">
-      <c r="A217" s="5">
-        <v>44732.3162731481</v>
-      </c>
-      <c r="B217" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C217" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D217" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E217" s="6">
-        <v>1</v>
-      </c>
-      <c r="F217" s="6">
-        <v>0</v>
-      </c>
-      <c r="G217" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H217" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I217" s="6">
-        <v>25.2</v>
-      </c>
-      <c r="J217" s="13">
-        <v>59.9</v>
-      </c>
-      <c r="K217" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25" spans="1:11">
-      <c r="A218" s="5">
-        <v>44733.3159722222</v>
-      </c>
-      <c r="B218" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="C218" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="D218" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="E218" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F218" s="6">
-        <v>0</v>
-      </c>
-      <c r="G218" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="H218" s="6">
-        <v>9.3</v>
-      </c>
-      <c r="I218" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="J218" s="13">
-        <v>61.4</v>
-      </c>
-      <c r="K218" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" ht="14.25" spans="1:11">
-      <c r="A219" s="5">
-        <v>44734.3160648148</v>
-      </c>
-      <c r="B219" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C219" s="6">
-        <v>8</v>
-      </c>
-      <c r="D219" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E219" s="6">
-        <v>1</v>
-      </c>
-      <c r="F219" s="6">
-        <v>0</v>
-      </c>
-      <c r="G219" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H219" s="6">
-        <v>9.8</v>
-      </c>
-      <c r="I219" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="J219" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K219" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" ht="14.25" spans="1:11">
-      <c r="A220" s="5">
-        <v>44735.3165509259</v>
-      </c>
-      <c r="B220" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="C220" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D220" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E220" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F220" s="6">
-        <v>0</v>
-      </c>
-      <c r="G220" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H220" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I220" s="6">
-        <v>24.1</v>
-      </c>
-      <c r="J220" s="13">
-        <v>63.5</v>
-      </c>
-      <c r="K220" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" ht="14.25" spans="1:11">
-      <c r="A221" s="5">
-        <v>44736.3171180556</v>
-      </c>
-      <c r="B221" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C221" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="D221" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E221" s="6">
-        <v>1</v>
-      </c>
-      <c r="F221" s="6">
-        <v>0</v>
-      </c>
-      <c r="G221" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H221" s="6">
-        <v>9.7</v>
-      </c>
-      <c r="I221" s="6">
-        <v>23</v>
-      </c>
-      <c r="J221" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K221" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" ht="14.25" spans="1:10">
-      <c r="A222" s="5">
-        <v>44737.0354166667</v>
-      </c>
-      <c r="B222" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="C222" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="D222" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E222" s="6">
-        <v>1.1</v>
-      </c>
-      <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H222" s="6">
-        <v>9.7</v>
-      </c>
-      <c r="I222" s="6">
-        <v>23.2</v>
-      </c>
-      <c r="J222" s="15">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25" spans="1:10">
-      <c r="A223" s="5">
-        <v>44738.0352083333</v>
-      </c>
-      <c r="B223" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="C223" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D223" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E223" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H223" s="6">
-        <v>9.8</v>
-      </c>
-      <c r="I223" s="6">
-        <v>22.5</v>
-      </c>
-      <c r="J223" s="15">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25" spans="1:10">
-      <c r="A224" s="5">
-        <v>44739.0350810185</v>
-      </c>
-      <c r="B224" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C224" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D224" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E224" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F224" s="6">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H224" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I224" s="6">
-        <v>22.1</v>
-      </c>
-      <c r="J224" s="15">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="225" ht="14.25" spans="1:10">
-      <c r="A225" s="5">
-        <v>44740.8256018519</v>
-      </c>
-      <c r="B225" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C225" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="D225" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E225" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="F225" s="6">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H225" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I225" s="6">
-        <v>21.6</v>
-      </c>
-      <c r="J225" s="15">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="226" ht="14.25" spans="1:10">
-      <c r="A226" s="7">
-        <v>44742.2793634259</v>
-      </c>
-      <c r="B226" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="C226" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="D226" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E226" s="6">
-        <v>1.1</v>
-      </c>
-      <c r="F226" s="6">
-        <v>0</v>
-      </c>
-      <c r="G226" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H226" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I226" s="6">
-        <v>21.2</v>
-      </c>
-      <c r="J226" s="15">
         <v>63.7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>